--- a/autoline-dev.ballistixcrm.com/src/test/resources/TestData.xlsx
+++ b/autoline-dev.ballistixcrm.com/src/test/resources/TestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t>HP61</t>
+  </si>
+  <si>
+    <t>Org928</t>
+  </si>
+  <si>
+    <t>Org577</t>
+  </si>
+  <si>
+    <t>HP641</t>
   </si>
 </sst>
 </file>
@@ -662,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -761,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/autoline-dev.ballistixcrm.com/src/test/resources/TestData.xlsx
+++ b/autoline-dev.ballistixcrm.com/src/test/resources/TestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>HP641</t>
+  </si>
+  <si>
+    <t>HP639</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
